--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H2">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I2">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J2">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N2">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O2">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P2">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q2">
-        <v>289.4205022329462</v>
+        <v>308.4637135931071</v>
       </c>
       <c r="R2">
-        <v>289.4205022329462</v>
+        <v>2776.173422337964</v>
       </c>
       <c r="S2">
-        <v>0.2254335668115172</v>
+        <v>0.2233990053392552</v>
       </c>
       <c r="T2">
-        <v>0.2254335668115172</v>
+        <v>0.2233990053392553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H3">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I3">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J3">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N3">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q3">
-        <v>57.16705893160175</v>
+        <v>60.18697924307689</v>
       </c>
       <c r="R3">
-        <v>57.16705893160175</v>
+        <v>541.682813187692</v>
       </c>
       <c r="S3">
-        <v>0.0445281999707903</v>
+        <v>0.0435892803748513</v>
       </c>
       <c r="T3">
-        <v>0.0445281999707903</v>
+        <v>0.04358928037485132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H4">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I4">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J4">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N4">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q4">
-        <v>210.9624468671839</v>
+        <v>222.8240043671204</v>
       </c>
       <c r="R4">
-        <v>210.9624468671839</v>
+        <v>2005.416039304084</v>
       </c>
       <c r="S4">
-        <v>0.164321520050008</v>
+        <v>0.1613760670954878</v>
       </c>
       <c r="T4">
-        <v>0.164321520050008</v>
+        <v>0.1613760670954878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H5">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I5">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J5">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N5">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q5">
-        <v>110.5852792637155</v>
+        <v>121.5071492899831</v>
       </c>
       <c r="R5">
-        <v>110.5852792637155</v>
+        <v>1093.564343609848</v>
       </c>
       <c r="S5">
-        <v>0.08613637855276042</v>
+        <v>0.08799925273802833</v>
       </c>
       <c r="T5">
-        <v>0.08613637855276042</v>
+        <v>0.08799925273802835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H6">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I6">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J6">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N6">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O6">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P6">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q6">
-        <v>11.38760700446754</v>
+        <v>14.47605804646222</v>
       </c>
       <c r="R6">
-        <v>11.38760700446754</v>
+        <v>130.28452241816</v>
       </c>
       <c r="S6">
-        <v>0.008869962026389931</v>
+        <v>0.01048401100778697</v>
       </c>
       <c r="T6">
-        <v>0.008869962026389931</v>
+        <v>0.01048401100778697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H7">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I7">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J7">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N7">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O7">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P7">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q7">
-        <v>217.1809382744778</v>
+        <v>221.1162742918249</v>
       </c>
       <c r="R7">
-        <v>217.1809382744778</v>
+        <v>1990.046468626424</v>
       </c>
       <c r="S7">
-        <v>0.1691651876109354</v>
+        <v>0.1601392759158542</v>
       </c>
       <c r="T7">
-        <v>0.1691651876109354</v>
+        <v>0.1601392759158543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H8">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I8">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J8">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N8">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O8">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P8">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q8">
-        <v>42.89812021390482</v>
+        <v>43.14387730111911</v>
       </c>
       <c r="R8">
-        <v>42.89812021390482</v>
+        <v>388.294895710072</v>
       </c>
       <c r="S8">
-        <v>0.03341392947188711</v>
+        <v>0.03124613641999626</v>
       </c>
       <c r="T8">
-        <v>0.03341392947188711</v>
+        <v>0.03124613641999627</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H9">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I9">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J9">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N9">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O9">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P9">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q9">
-        <v>158.3060695348316</v>
+        <v>159.7270975393716</v>
       </c>
       <c r="R9">
-        <v>158.3060695348316</v>
+        <v>1437.543877854344</v>
       </c>
       <c r="S9">
-        <v>0.1233067513455744</v>
+        <v>0.1156793267524844</v>
       </c>
       <c r="T9">
-        <v>0.1233067513455744</v>
+        <v>0.1156793267524844</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H10">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I10">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J10">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N10">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O10">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P10">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q10">
-        <v>82.98311461884022</v>
+        <v>87.10006061284088</v>
       </c>
       <c r="R10">
-        <v>82.98311461884022</v>
+        <v>783.900545515568</v>
       </c>
       <c r="S10">
-        <v>0.06463667697804368</v>
+        <v>0.06308057009118594</v>
       </c>
       <c r="T10">
-        <v>0.06463667697804368</v>
+        <v>0.06308057009118594</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H11">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I11">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J11">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N11">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O11">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P11">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q11">
-        <v>8.545252167176088</v>
+        <v>10.37688350561778</v>
       </c>
       <c r="R11">
-        <v>8.545252167176088</v>
+        <v>93.39195155055999</v>
       </c>
       <c r="S11">
-        <v>0.006656013172832726</v>
+        <v>0.007515261444119947</v>
       </c>
       <c r="T11">
-        <v>0.006656013172832726</v>
+        <v>0.007515261444119947</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.735099035103003</v>
+        <v>0.044456</v>
       </c>
       <c r="H12">
-        <v>0.735099035103003</v>
+        <v>0.133368</v>
       </c>
       <c r="I12">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158775</v>
       </c>
       <c r="J12">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158774</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N12">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O12">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P12">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q12">
-        <v>40.2078813536159</v>
+        <v>2.470210739701333</v>
       </c>
       <c r="R12">
-        <v>40.2078813536159</v>
+        <v>22.231896657312</v>
       </c>
       <c r="S12">
-        <v>0.03131846582238466</v>
+        <v>0.001789003367039653</v>
       </c>
       <c r="T12">
-        <v>0.03131846582238466</v>
+        <v>0.001789003367039653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.735099035103003</v>
+        <v>0.044456</v>
       </c>
       <c r="H13">
-        <v>0.735099035103003</v>
+        <v>0.133368</v>
       </c>
       <c r="I13">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158775</v>
       </c>
       <c r="J13">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158774</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N13">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O13">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P13">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q13">
-        <v>7.941960936157044</v>
+        <v>0.4819838313706666</v>
       </c>
       <c r="R13">
-        <v>7.941960936157044</v>
+        <v>4.337854482336</v>
       </c>
       <c r="S13">
-        <v>0.00618610142509735</v>
+        <v>0.0003490676658968173</v>
       </c>
       <c r="T13">
-        <v>0.00618610142509735</v>
+        <v>0.0003490676658968173</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.735099035103003</v>
+        <v>0.044456</v>
       </c>
       <c r="H14">
-        <v>0.735099035103003</v>
+        <v>0.133368</v>
       </c>
       <c r="I14">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158775</v>
       </c>
       <c r="J14">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158774</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N14">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O14">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P14">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q14">
-        <v>29.30805858002771</v>
+        <v>1.784398697141333</v>
       </c>
       <c r="R14">
-        <v>29.30805858002771</v>
+        <v>16.059588274272</v>
       </c>
       <c r="S14">
-        <v>0.02282844556982607</v>
+        <v>0.001292316977665228</v>
       </c>
       <c r="T14">
-        <v>0.02282844556982607</v>
+        <v>0.001292316977665228</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.735099035103003</v>
+        <v>0.044456</v>
       </c>
       <c r="H15">
-        <v>0.735099035103003</v>
+        <v>0.133368</v>
       </c>
       <c r="I15">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158775</v>
       </c>
       <c r="J15">
-        <v>0.07353181400926059</v>
+        <v>0.004219052625158774</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N15">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O15">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P15">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q15">
-        <v>15.36311268133027</v>
+        <v>0.9730423771093331</v>
       </c>
       <c r="R15">
-        <v>15.36311268133027</v>
+        <v>8.757381393983998</v>
       </c>
       <c r="S15">
-        <v>0.01196653748562697</v>
+        <v>0.0007047075218899492</v>
       </c>
       <c r="T15">
-        <v>0.01196653748562697</v>
+        <v>0.0007047075218899492</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.044456</v>
+      </c>
+      <c r="H16">
+        <v>0.133368</v>
+      </c>
+      <c r="I16">
+        <v>0.004219052625158775</v>
+      </c>
+      <c r="J16">
+        <v>0.004219052625158774</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.607653333333333</v>
+      </c>
+      <c r="N16">
+        <v>7.82296</v>
+      </c>
+      <c r="O16">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="P16">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="Q16">
+        <v>0.1159258365866667</v>
+      </c>
+      <c r="R16">
+        <v>1.04333252928</v>
+      </c>
+      <c r="S16">
+        <v>8.395709266712623E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.395709266712622E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.885213</v>
+      </c>
+      <c r="I17">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J17">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>55.56529466666667</v>
+      </c>
+      <c r="N17">
+        <v>166.695884</v>
+      </c>
+      <c r="O17">
+        <v>0.424029640296873</v>
+      </c>
+      <c r="P17">
+        <v>0.4240296402968731</v>
+      </c>
+      <c r="Q17">
+        <v>53.43923684036578</v>
+      </c>
+      <c r="R17">
+        <v>480.9531315632921</v>
+      </c>
+      <c r="S17">
+        <v>0.03870235567472392</v>
+      </c>
+      <c r="T17">
+        <v>0.03870235567472392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.885213</v>
+      </c>
+      <c r="I18">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J18">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.84181733333333</v>
+      </c>
+      <c r="N18">
+        <v>32.525452</v>
+      </c>
+      <c r="O18">
+        <v>0.08273603031526086</v>
+      </c>
+      <c r="P18">
+        <v>0.08273603031526089</v>
+      </c>
+      <c r="Q18">
+        <v>10.42698410458622</v>
+      </c>
+      <c r="R18">
+        <v>93.84285694127601</v>
+      </c>
+      <c r="S18">
+        <v>0.007551545854516481</v>
+      </c>
+      <c r="T18">
+        <v>0.007551545854516483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.735099035103003</v>
-      </c>
-      <c r="H16">
-        <v>0.735099035103003</v>
-      </c>
-      <c r="I16">
-        <v>0.07353181400926059</v>
-      </c>
-      <c r="J16">
-        <v>0.07353181400926059</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.1521300675325</v>
-      </c>
-      <c r="N16">
-        <v>2.1521300675325</v>
-      </c>
-      <c r="O16">
-        <v>0.01675823890554818</v>
-      </c>
-      <c r="P16">
-        <v>0.01675823890554818</v>
-      </c>
-      <c r="Q16">
-        <v>1.582028736059301</v>
-      </c>
-      <c r="R16">
-        <v>1.582028736059301</v>
-      </c>
-      <c r="S16">
-        <v>0.001232263706325524</v>
-      </c>
-      <c r="T16">
-        <v>0.001232263706325524</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.885213</v>
+      </c>
+      <c r="I19">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J19">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>40.13853466666666</v>
+      </c>
+      <c r="N19">
+        <v>120.415604</v>
+      </c>
+      <c r="O19">
+        <v>0.3063050150071534</v>
+      </c>
+      <c r="P19">
+        <v>0.3063050150071535</v>
+      </c>
+      <c r="Q19">
+        <v>38.60274067373911</v>
+      </c>
+      <c r="R19">
+        <v>347.424666063652</v>
+      </c>
+      <c r="S19">
+        <v>0.02795730418151601</v>
+      </c>
+      <c r="T19">
+        <v>0.02795730418151601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.885213</v>
+      </c>
+      <c r="I20">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J20">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.88776266666666</v>
+      </c>
+      <c r="N20">
+        <v>65.66328799999999</v>
+      </c>
+      <c r="O20">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="P20">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="Q20">
+        <v>21.05028579559378</v>
+      </c>
+      <c r="R20">
+        <v>189.452572160344</v>
+      </c>
+      <c r="S20">
+        <v>0.01524527100469878</v>
+      </c>
+      <c r="T20">
+        <v>0.01524527100469878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.885213</v>
+      </c>
+      <c r="I21">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J21">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.607653333333333</v>
+      </c>
+      <c r="N21">
+        <v>7.82296</v>
+      </c>
+      <c r="O21">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="P21">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="Q21">
+        <v>2.507878432275556</v>
+      </c>
+      <c r="R21">
+        <v>22.57090589048</v>
+      </c>
+      <c r="S21">
+        <v>0.001816283480335593</v>
+      </c>
+      <c r="T21">
+        <v>0.001816283480335593</v>
       </c>
     </row>
   </sheetData>
